--- a/server/resource/excel/template_require.xlsx
+++ b/server/resource/excel/template_require.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xujun/gva/gin-vue-admin/server/resource/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E33F97-4E0F-314D-8D3C-2D31CEA34E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A8B0D1-54E4-EE48-96B1-5186509D20C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="520" windowWidth="28800" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="order" sheetId="1" r:id="rId1"/>
@@ -100,16 +100,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ [$€-2]* #,##0.00_ ;_ [$€-2]* \-#,##0.00_ ;_ [$€-2]* &quot;-&quot;??_ "/>
     <numFmt numFmtId="178" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="183" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="184" formatCode="0.0000;[Red]0.0000"/>
+    <numFmt numFmtId="181" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="182" formatCode="0.0000;[Red]0.0000"/>
+    <numFmt numFmtId="183" formatCode="0_ "/>
+    <numFmt numFmtId="184" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +191,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -247,7 +255,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -288,25 +296,34 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="183" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,7 +1262,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="52.33203125" defaultRowHeight="30" customHeight="1"/>
@@ -1277,6 +1294,10 @@
     <row r="2" spans="1:16" ht="33" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="5"/>
+      <c r="G2" s="22"/>
+      <c r="L2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" spans="1:16" s="12" customFormat="1" ht="34" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -1335,7 +1356,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="19"/>
